--- a/AllData.xlsx
+++ b/AllData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61d7570c50a50215/Desktop/HR-verkefni/Gagnanám og Vitvélar/Research project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_F25DC773A252ABDACC104853495A7E7C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44FD39D2-FF95-4665-A922-5539E1C97E12}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="11_F25DC773A252ABDACC104853495A7E7C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44E97155-487F-4107-9BD2-8761E347EB1A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,19 +30,7 @@
     <t>Range</t>
   </si>
   <si>
-    <t>Prevalence of Most Common Pitch Class</t>
-  </si>
-  <si>
-    <t>Relative Prevalence of Top Pitches</t>
-  </si>
-  <si>
-    <t>Pitch Class Variability After Folding</t>
-  </si>
-  <si>
     <t>Most Common Melodic Interval</t>
-  </si>
-  <si>
-    <t>Number of Common Melodic Intervals</t>
   </si>
   <si>
     <t>Stepwise Motion</t>
@@ -59,13 +47,25 @@
   <si>
     <t>Composer</t>
   </si>
+  <si>
+    <t>Interval Between Most Prevalent Pitch Classes</t>
+  </si>
+  <si>
+    <t>Pitch Class Variability</t>
+  </si>
+  <si>
+    <t>Chromatic Motion</t>
+  </si>
+  <si>
+    <t>Relative Prevalence of Top Pitch Classes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -96,10 +96,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,6 +118,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,45 +389,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="97" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -4841,31 +4858,31 @@
         <v>48</v>
       </c>
       <c r="C128" s="2">
-        <v>0.18</v>
+        <v>0.9788</v>
       </c>
       <c r="D128" s="2">
-        <v>0.84</v>
+        <v>5</v>
       </c>
       <c r="E128" s="2">
-        <v>2.12</v>
+        <v>3.4689999999999999</v>
       </c>
       <c r="F128" s="2">
         <v>0</v>
       </c>
       <c r="G128" s="2">
-        <v>3</v>
+        <v>0.1812</v>
       </c>
       <c r="H128" s="2">
-        <v>0.44</v>
+        <v>0.44219999999999998</v>
       </c>
       <c r="I128" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.13689999999999999</v>
       </c>
       <c r="J128" s="2">
-        <v>0.04</v>
+        <v>3.8460000000000001E-2</v>
       </c>
       <c r="K128" s="2">
-        <v>3.12</v>
+        <v>3.1150000000000002</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -4876,31 +4893,31 @@
         <v>48</v>
       </c>
       <c r="C129" s="2">
-        <v>0.25</v>
+        <v>0.90049999999999997</v>
       </c>
       <c r="D129" s="2">
-        <v>0.77</v>
+        <v>5</v>
       </c>
       <c r="E129" s="2">
-        <v>1.99</v>
+        <v>3.5840000000000001</v>
       </c>
       <c r="F129" s="2">
         <v>0</v>
       </c>
       <c r="G129" s="2">
-        <v>3</v>
+        <v>0.14760000000000001</v>
       </c>
       <c r="H129" s="2">
-        <v>0.41</v>
+        <v>0.4133</v>
       </c>
       <c r="I129" s="2">
-        <v>0.09</v>
+        <v>8.8760000000000006E-2</v>
       </c>
       <c r="J129" s="2">
-        <v>0.01</v>
+        <v>1.255E-2</v>
       </c>
       <c r="K129" s="2">
-        <v>4.58</v>
+        <v>4.5810000000000004</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -4911,31 +4928,31 @@
         <v>52</v>
       </c>
       <c r="C130" s="2">
-        <v>0.22</v>
+        <v>0.67659999999999998</v>
       </c>
       <c r="D130" s="2">
-        <v>0.72</v>
+        <v>2</v>
       </c>
       <c r="E130" s="2">
-        <v>2.33</v>
+        <v>3.4940000000000002</v>
       </c>
       <c r="F130" s="2">
         <v>2</v>
       </c>
       <c r="G130" s="2">
-        <v>4</v>
+        <v>0.1905</v>
       </c>
       <c r="H130" s="2">
-        <v>0.45</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="I130" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.3810000000000001E-2</v>
       </c>
       <c r="J130" s="2">
-        <v>0.02</v>
+        <v>1.814E-2</v>
       </c>
       <c r="K130" s="2">
-        <v>2.12</v>
+        <v>2.1150000000000002</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -4946,31 +4963,31 @@
         <v>48</v>
       </c>
       <c r="C131" s="2">
-        <v>0.18</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="D131" s="2">
-        <v>0.84</v>
+        <v>2</v>
       </c>
       <c r="E131" s="2">
-        <v>2.52</v>
+        <v>3.5459999999999998</v>
       </c>
       <c r="F131" s="2">
         <v>2</v>
       </c>
       <c r="G131" s="2">
-        <v>3</v>
+        <v>0.18729999999999999</v>
       </c>
       <c r="H131" s="2">
-        <v>0.46</v>
+        <v>0.46060000000000001</v>
       </c>
       <c r="I131" s="2">
-        <v>0.12</v>
+        <v>0.1158</v>
       </c>
       <c r="J131" s="2">
-        <v>0.01</v>
+        <v>5.5250000000000004E-3</v>
       </c>
       <c r="K131" s="2">
-        <v>1.99</v>
+        <v>1.994</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -4981,31 +4998,31 @@
         <v>52</v>
       </c>
       <c r="C132" s="2">
-        <v>0.19</v>
+        <v>0.98270000000000002</v>
       </c>
       <c r="D132" s="2">
-        <v>0.75</v>
+        <v>7</v>
       </c>
       <c r="E132" s="2">
-        <v>2.23</v>
+        <v>3.3109999999999999</v>
       </c>
       <c r="F132" s="2">
         <v>0</v>
       </c>
       <c r="G132" s="2">
-        <v>3</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="H132" s="2">
-        <v>0.39</v>
+        <v>0.39369999999999999</v>
       </c>
       <c r="I132" s="2">
-        <v>0.13</v>
+        <v>0.12570000000000001</v>
       </c>
       <c r="J132" s="2">
-        <v>0.03</v>
+        <v>2.776E-2</v>
       </c>
       <c r="K132" s="2">
-        <v>2.4700000000000002</v>
+        <v>2.472</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -5016,31 +5033,31 @@
         <v>50</v>
       </c>
       <c r="C133" s="2">
-        <v>0.18</v>
+        <v>0.9375</v>
       </c>
       <c r="D133" s="2">
-        <v>0.93</v>
+        <v>5</v>
       </c>
       <c r="E133" s="2">
-        <v>2.2999999999999998</v>
+        <v>3.512</v>
       </c>
       <c r="F133" s="2">
         <v>2</v>
       </c>
       <c r="G133" s="2">
-        <v>3</v>
+        <v>0.24940000000000001</v>
       </c>
       <c r="H133" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.55069999999999997</v>
       </c>
       <c r="I133" s="2">
-        <v>0.17</v>
+        <v>0.16520000000000001</v>
       </c>
       <c r="J133" s="2">
-        <v>0.02</v>
+        <v>2.2440000000000002E-2</v>
       </c>
       <c r="K133" s="2">
-        <v>3.34</v>
+        <v>3.343</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -5051,31 +5068,31 @@
         <v>44</v>
       </c>
       <c r="C134" s="2">
-        <v>0.22</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="D134" s="2">
-        <v>0.87</v>
+        <v>7</v>
       </c>
       <c r="E134" s="2">
-        <v>2.27</v>
+        <v>3.28</v>
       </c>
       <c r="F134" s="2">
         <v>2</v>
       </c>
       <c r="G134" s="2">
-        <v>5</v>
+        <v>0.2356</v>
       </c>
       <c r="H134" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.54559999999999997</v>
       </c>
       <c r="I134" s="2">
-        <v>0.12</v>
+        <v>0.1249</v>
       </c>
       <c r="J134" s="2">
-        <v>0.01</v>
+        <v>7.6299999999999996E-3</v>
       </c>
       <c r="K134" s="2">
-        <v>2.63</v>
+        <v>2.6339999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -5086,31 +5103,31 @@
         <v>48</v>
       </c>
       <c r="C135" s="2">
-        <v>0.21</v>
+        <v>0.79379999999999995</v>
       </c>
       <c r="D135" s="2">
-        <v>0.86</v>
+        <v>7</v>
       </c>
       <c r="E135" s="2">
-        <v>2.12</v>
+        <v>3.5310000000000001</v>
       </c>
       <c r="F135" s="2">
         <v>2</v>
       </c>
       <c r="G135" s="2">
-        <v>3</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="H135" s="2">
-        <v>0.47</v>
+        <v>0.47320000000000001</v>
       </c>
       <c r="I135" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.1384</v>
       </c>
       <c r="J135" s="2">
-        <v>0.02</v>
+        <v>1.7479999999999999E-2</v>
       </c>
       <c r="K135" s="2">
-        <v>2.38</v>
+        <v>2.3780000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -5121,31 +5138,31 @@
         <v>48</v>
       </c>
       <c r="C136" s="2">
-        <v>0.17</v>
+        <v>0.9607</v>
       </c>
       <c r="D136" s="2">
-        <v>0.99</v>
+        <v>4</v>
       </c>
       <c r="E136" s="2">
-        <v>2.58</v>
+        <v>3.4510000000000001</v>
       </c>
       <c r="F136" s="2">
         <v>1</v>
       </c>
       <c r="G136" s="2">
-        <v>3</v>
+        <v>0.2606</v>
       </c>
       <c r="H136" s="2">
-        <v>0.5</v>
+        <v>0.50049999999999994</v>
       </c>
       <c r="I136" s="2">
-        <v>0.18</v>
+        <v>0.17979999999999999</v>
       </c>
       <c r="J136" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>6.8440000000000001E-2</v>
       </c>
       <c r="K136" s="2">
-        <v>3.66</v>
+        <v>3.6579999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -5156,31 +5173,31 @@
         <v>50</v>
       </c>
       <c r="C137" s="2">
-        <v>0.22</v>
+        <v>0.8135</v>
       </c>
       <c r="D137" s="2">
-        <v>0.93</v>
+        <v>7</v>
       </c>
       <c r="E137" s="2">
-        <v>3.02</v>
+        <v>3.5249999999999999</v>
       </c>
       <c r="F137" s="2">
         <v>2</v>
       </c>
       <c r="G137" s="2">
-        <v>3</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="H137" s="2">
-        <v>0.45</v>
+        <v>0.4481</v>
       </c>
       <c r="I137" s="2">
-        <v>0.13</v>
+        <v>0.1298</v>
       </c>
       <c r="J137" s="2">
-        <v>0.04</v>
+        <v>4.0189999999999997E-2</v>
       </c>
       <c r="K137" s="2">
-        <v>2.4</v>
+        <v>2.403</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -5191,31 +5208,31 @@
         <v>49</v>
       </c>
       <c r="C138" s="2">
-        <v>0.2</v>
+        <v>0.90769999999999995</v>
       </c>
       <c r="D138" s="2">
-        <v>0.92</v>
+        <v>4</v>
       </c>
       <c r="E138" s="2">
-        <v>4.21</v>
+        <v>3.4169999999999998</v>
       </c>
       <c r="F138" s="2">
         <v>3</v>
       </c>
       <c r="G138" s="2">
-        <v>6</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="H138" s="2">
-        <v>0.24</v>
+        <v>0.2364</v>
       </c>
       <c r="I138" s="2">
         <v>0.11</v>
       </c>
       <c r="J138" s="2">
-        <v>0.09</v>
+        <v>9.4780000000000003E-2</v>
       </c>
       <c r="K138" s="2">
-        <v>2.2200000000000002</v>
+        <v>2.218</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -5226,31 +5243,31 @@
         <v>44</v>
       </c>
       <c r="C139" s="2">
-        <v>0.23</v>
+        <v>0.80620000000000003</v>
       </c>
       <c r="D139" s="2">
-        <v>0.66</v>
+        <v>7</v>
       </c>
       <c r="E139" s="2">
-        <v>3.38</v>
+        <v>3.4889999999999999</v>
       </c>
       <c r="F139" s="2">
         <v>2</v>
       </c>
       <c r="G139" s="2">
-        <v>4</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="H139" s="2">
-        <v>0.5</v>
+        <v>0.50429999999999997</v>
       </c>
       <c r="I139" s="2">
-        <v>0.11</v>
+        <v>0.1056</v>
       </c>
       <c r="J139" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.0139999999999994E-2</v>
       </c>
       <c r="K139" s="2">
-        <v>2.98</v>
+        <v>2.9750000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -5261,31 +5278,31 @@
         <v>51</v>
       </c>
       <c r="C140" s="2">
-        <v>0.18</v>
+        <v>0.97689999999999999</v>
       </c>
       <c r="D140" s="2">
-        <v>0.87</v>
+        <v>5</v>
       </c>
       <c r="E140" s="2">
-        <v>4.1500000000000004</v>
+        <v>3.3570000000000002</v>
       </c>
       <c r="F140" s="2">
         <v>2</v>
       </c>
       <c r="G140" s="2">
-        <v>6</v>
+        <v>0.1547</v>
       </c>
       <c r="H140" s="2">
-        <v>0.34</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="I140" s="2">
-        <v>0.12</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J140" s="2">
-        <v>0.03</v>
+        <v>2.6040000000000001E-2</v>
       </c>
       <c r="K140" s="2">
-        <v>1.5</v>
+        <v>1.504</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -5296,31 +5313,31 @@
         <v>50</v>
       </c>
       <c r="C141" s="2">
-        <v>0.21</v>
+        <v>0.79110000000000003</v>
       </c>
       <c r="D141" s="2">
-        <v>0.65</v>
+        <v>5</v>
       </c>
       <c r="E141" s="2">
-        <v>4.18</v>
+        <v>3.468</v>
       </c>
       <c r="F141" s="2">
         <v>1</v>
       </c>
       <c r="G141" s="2">
-        <v>3</v>
+        <v>0.29149999999999998</v>
       </c>
       <c r="H141" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.56830000000000003</v>
       </c>
       <c r="I141" s="2">
-        <v>0.11</v>
+        <v>0.1074</v>
       </c>
       <c r="J141" s="2">
-        <v>0.06</v>
+        <v>6.0679999999999998E-2</v>
       </c>
       <c r="K141" s="2">
-        <v>1.92</v>
+        <v>1.9239999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -5331,31 +5348,31 @@
         <v>50</v>
       </c>
       <c r="C142" s="2">
-        <v>0.17</v>
+        <v>0.93520000000000003</v>
       </c>
       <c r="D142" s="2">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="E142" s="2">
-        <v>4.3</v>
+        <v>3.4609999999999999</v>
       </c>
       <c r="F142" s="2">
         <v>2</v>
       </c>
       <c r="G142" s="2">
-        <v>4</v>
+        <v>0.2404</v>
       </c>
       <c r="H142" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.56230000000000002</v>
       </c>
       <c r="I142" s="2">
-        <v>0.09</v>
+        <v>9.2990000000000003E-2</v>
       </c>
       <c r="J142" s="2">
-        <v>0.01</v>
+        <v>1.3469999999999999E-2</v>
       </c>
       <c r="K142" s="2">
-        <v>2.41</v>
+        <v>2.4089999999999998</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -5366,31 +5383,31 @@
         <v>49</v>
       </c>
       <c r="C143" s="2">
-        <v>0.18</v>
+        <v>0.77449999999999997</v>
       </c>
       <c r="D143" s="2">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="E143" s="2">
-        <v>4</v>
+        <v>3.431</v>
       </c>
       <c r="F143" s="2">
         <v>1</v>
       </c>
       <c r="G143" s="2">
-        <v>4</v>
+        <v>0.22570000000000001</v>
       </c>
       <c r="H143" s="2">
-        <v>0.43</v>
+        <v>0.43490000000000001</v>
       </c>
       <c r="I143" s="2">
-        <v>0.16</v>
+        <v>0.15740000000000001</v>
       </c>
       <c r="J143" s="2">
-        <v>0.08</v>
+        <v>7.6039999999999996E-2</v>
       </c>
       <c r="K143" s="2">
-        <v>2.61</v>
+        <v>2.609</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -5401,31 +5418,31 @@
         <v>48</v>
       </c>
       <c r="C144" s="2">
-        <v>0.2</v>
+        <v>0.91579999999999995</v>
       </c>
       <c r="D144" s="2">
-        <v>0.87</v>
+        <v>5</v>
       </c>
       <c r="E144" s="2">
-        <v>3.77</v>
+        <v>3.496</v>
       </c>
       <c r="F144" s="2">
         <v>2</v>
       </c>
       <c r="G144" s="2">
-        <v>3</v>
+        <v>0.20669999999999999</v>
       </c>
       <c r="H144" s="2">
-        <v>0.49</v>
+        <v>0.49430000000000002</v>
       </c>
       <c r="I144" s="2">
-        <v>0.2</v>
+        <v>0.19839999999999999</v>
       </c>
       <c r="J144" s="2">
-        <v>0.04</v>
+        <v>3.585E-2</v>
       </c>
       <c r="K144" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.2040000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -5436,31 +5453,31 @@
         <v>47</v>
       </c>
       <c r="C145" s="2">
-        <v>0.2</v>
+        <v>0.98860000000000003</v>
       </c>
       <c r="D145" s="2">
-        <v>0.73</v>
+        <v>7</v>
       </c>
       <c r="E145" s="2">
-        <v>4.18</v>
+        <v>3.3359999999999999</v>
       </c>
       <c r="F145" s="2">
         <v>2</v>
       </c>
       <c r="G145" s="2">
-        <v>2</v>
+        <v>0.21740000000000001</v>
       </c>
       <c r="H145" s="2">
-        <v>0.59</v>
+        <v>0.59489999999999998</v>
       </c>
       <c r="I145" s="2">
-        <v>0.08</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="J145" s="2">
-        <v>0.01</v>
+        <v>1.0489999999999999E-2</v>
       </c>
       <c r="K145" s="2">
-        <v>1.95</v>
+        <v>1.9450000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -5471,31 +5488,31 @@
         <v>50</v>
       </c>
       <c r="C146" s="2">
-        <v>0.15</v>
+        <v>0.97829999999999995</v>
       </c>
       <c r="D146" s="2">
-        <v>0.91</v>
+        <v>7</v>
       </c>
       <c r="E146" s="2">
-        <v>3.91</v>
+        <v>3.4569999999999999</v>
       </c>
       <c r="F146" s="2">
         <v>1</v>
       </c>
       <c r="G146" s="2">
-        <v>3</v>
+        <v>0.34010000000000001</v>
       </c>
       <c r="H146" s="2">
-        <v>0.62</v>
+        <v>0.61890000000000001</v>
       </c>
       <c r="I146" s="2">
-        <v>0.17</v>
+        <v>0.1744</v>
       </c>
       <c r="J146" s="2">
-        <v>0.04</v>
+        <v>4.2009999999999999E-2</v>
       </c>
       <c r="K146" s="2">
-        <v>2.74</v>
+        <v>2.7389999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -5506,31 +5523,31 @@
         <v>48</v>
       </c>
       <c r="C147" s="2">
-        <v>0.16</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="D147" s="2">
-        <v>0.95</v>
+        <v>5</v>
       </c>
       <c r="E147" s="2">
-        <v>4.03</v>
+        <v>3.4470000000000001</v>
       </c>
       <c r="F147" s="2">
         <v>1</v>
       </c>
       <c r="G147" s="2">
-        <v>2</v>
+        <v>0.34289999999999998</v>
       </c>
       <c r="H147" s="2">
-        <v>0.62</v>
+        <v>0.61709999999999998</v>
       </c>
       <c r="I147" s="2">
-        <v>0.2</v>
+        <v>0.1958</v>
       </c>
       <c r="J147" s="2">
-        <v>0.13</v>
+        <v>0.1298</v>
       </c>
       <c r="K147" s="2">
-        <v>2.12</v>
+        <v>2.1240000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -5541,31 +5558,31 @@
         <v>53</v>
       </c>
       <c r="C148" s="2">
-        <v>0.2</v>
+        <v>0.93830000000000002</v>
       </c>
       <c r="D148" s="2">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="E148" s="2">
-        <v>4.3899999999999997</v>
+        <v>3.5</v>
       </c>
       <c r="F148" s="2">
         <v>2</v>
       </c>
       <c r="G148" s="2">
-        <v>3</v>
+        <v>0.24060000000000001</v>
       </c>
       <c r="H148" s="2">
-        <v>0.53</v>
+        <v>0.53380000000000005</v>
       </c>
       <c r="I148" s="2">
-        <v>0.12</v>
+        <v>0.11509999999999999</v>
       </c>
       <c r="J148" s="2">
-        <v>0.02</v>
+        <v>1.546E-2</v>
       </c>
       <c r="K148" s="2">
-        <v>1.79</v>
+        <v>1.7929999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -5576,31 +5593,31 @@
         <v>51</v>
       </c>
       <c r="C149" s="2">
-        <v>0.15</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="D149" s="2">
-        <v>0.92</v>
+        <v>5</v>
       </c>
       <c r="E149" s="2">
-        <v>4.04</v>
+        <v>3.427</v>
       </c>
       <c r="F149" s="2">
         <v>2</v>
       </c>
       <c r="G149" s="2">
-        <v>2</v>
+        <v>0.247</v>
       </c>
       <c r="H149" s="2">
-        <v>0.69</v>
+        <v>0.69279999999999997</v>
       </c>
       <c r="I149" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.13669999999999999</v>
       </c>
       <c r="J149" s="2">
-        <v>0.04</v>
+        <v>4.0750000000000001E-2</v>
       </c>
       <c r="K149" s="2">
-        <v>3.92</v>
+        <v>3.915</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -5611,31 +5628,31 @@
         <v>51</v>
       </c>
       <c r="C150" s="2">
-        <v>0.15</v>
+        <v>0.98629999999999995</v>
       </c>
       <c r="D150" s="2">
-        <v>0.92</v>
+        <v>5</v>
       </c>
       <c r="E150" s="2">
-        <v>4.04</v>
+        <v>3.427</v>
       </c>
       <c r="F150" s="2">
         <v>2</v>
       </c>
       <c r="G150" s="2">
-        <v>2</v>
+        <v>0.247</v>
       </c>
       <c r="H150" s="2">
-        <v>0.69</v>
+        <v>0.69279999999999997</v>
       </c>
       <c r="I150" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.13669999999999999</v>
       </c>
       <c r="J150" s="2">
-        <v>0.04</v>
+        <v>4.0750000000000001E-2</v>
       </c>
       <c r="K150" s="2">
-        <v>3.92</v>
+        <v>3.915</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -5646,31 +5663,31 @@
         <v>52</v>
       </c>
       <c r="C151" s="2">
-        <v>0.19</v>
+        <v>0.82389999999999997</v>
       </c>
       <c r="D151" s="2">
-        <v>0.82</v>
+        <v>5</v>
       </c>
       <c r="E151" s="2">
-        <v>2.13</v>
+        <v>3.3639999999999999</v>
       </c>
       <c r="F151" s="2">
         <v>2</v>
       </c>
       <c r="G151" s="2">
-        <v>3</v>
+        <v>0.23180000000000001</v>
       </c>
       <c r="H151" s="2">
-        <v>0.53</v>
+        <v>0.52959999999999996</v>
       </c>
       <c r="I151" s="2">
-        <v>0.16</v>
+        <v>0.1628</v>
       </c>
       <c r="J151" s="2">
-        <v>0.05</v>
+        <v>4.6010000000000002E-2</v>
       </c>
       <c r="K151" s="2">
-        <v>4.42</v>
+        <v>4.4189999999999996</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -5681,31 +5698,31 @@
         <v>45</v>
       </c>
       <c r="C152" s="2">
-        <v>0.22</v>
+        <v>0.98170000000000002</v>
       </c>
       <c r="D152" s="2">
-        <v>0.79</v>
+        <v>7</v>
       </c>
       <c r="E152" s="2">
-        <v>1.9</v>
+        <v>3.5840000000000001</v>
       </c>
       <c r="F152" s="2">
         <v>2</v>
       </c>
       <c r="G152" s="2">
-        <v>4</v>
+        <v>0.121</v>
       </c>
       <c r="H152" s="2">
-        <v>0.5</v>
+        <v>0.502</v>
       </c>
       <c r="I152" s="2">
-        <v>0.03</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="J152" s="2">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K152" s="2">
-        <v>2.42</v>
+        <v>2.4209999999999998</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -5716,31 +5733,31 @@
         <v>46</v>
       </c>
       <c r="C153" s="2">
-        <v>0.21</v>
+        <v>0.9</v>
       </c>
       <c r="D153" s="2">
-        <v>0.85</v>
+        <v>5</v>
       </c>
       <c r="E153" s="2">
-        <v>2.2799999999999998</v>
+        <v>3.5089999999999999</v>
       </c>
       <c r="F153" s="2">
         <v>2</v>
       </c>
       <c r="G153" s="2">
-        <v>3</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="H153" s="2">
-        <v>0.52</v>
+        <v>0.52139999999999997</v>
       </c>
       <c r="I153" s="2">
-        <v>0.11</v>
+        <v>0.1082</v>
       </c>
       <c r="J153" s="2">
-        <v>0.02</v>
+        <v>1.966E-2</v>
       </c>
       <c r="K153" s="2">
-        <v>4</v>
+        <v>4.0030000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -5751,31 +5768,31 @@
         <v>45</v>
       </c>
       <c r="C154" s="2">
-        <v>0.21</v>
+        <v>0.75819999999999999</v>
       </c>
       <c r="D154" s="2">
-        <v>0.95</v>
+        <v>7</v>
       </c>
       <c r="E154" s="2">
-        <v>3.81</v>
+        <v>3.32</v>
       </c>
       <c r="F154" s="2">
         <v>1</v>
       </c>
       <c r="G154" s="2">
-        <v>3</v>
+        <v>0.3271</v>
       </c>
       <c r="H154" s="2">
-        <v>0.59</v>
+        <v>0.59160000000000001</v>
       </c>
       <c r="I154" s="2">
-        <v>0.1</v>
+        <v>9.8390000000000005E-2</v>
       </c>
       <c r="J154" s="2">
-        <v>0.09</v>
+        <v>9.2509999999999995E-2</v>
       </c>
       <c r="K154" s="2">
-        <v>1.26</v>
+        <v>1.262</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -5786,31 +5803,31 @@
         <v>50</v>
       </c>
       <c r="C155" s="2">
-        <v>0.18</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="D155" s="2">
-        <v>0.92</v>
+        <v>5</v>
       </c>
       <c r="E155" s="2">
-        <v>2.29</v>
+        <v>3.5390000000000001</v>
       </c>
       <c r="F155" s="2">
         <v>0</v>
       </c>
       <c r="G155" s="2">
-        <v>3</v>
+        <v>0.18790000000000001</v>
       </c>
       <c r="H155" s="2">
-        <v>0.44</v>
+        <v>0.44290000000000002</v>
       </c>
       <c r="I155" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="J155" s="2">
-        <v>0.01</v>
+        <v>8.5109999999999995E-3</v>
       </c>
       <c r="K155" s="2">
-        <v>2.6</v>
+        <v>2.6040000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -5821,31 +5838,31 @@
         <v>52</v>
       </c>
       <c r="C156" s="2">
-        <v>0.2</v>
+        <v>0.94410000000000005</v>
       </c>
       <c r="D156" s="2">
-        <v>0.94</v>
+        <v>7</v>
       </c>
       <c r="E156" s="2">
-        <v>3.49</v>
+        <v>3.4630000000000001</v>
       </c>
       <c r="F156" s="2">
         <v>2</v>
       </c>
       <c r="G156" s="2">
-        <v>4</v>
+        <v>0.21740000000000001</v>
       </c>
       <c r="H156" s="2">
-        <v>0.51</v>
+        <v>0.51459999999999995</v>
       </c>
       <c r="I156" s="2">
-        <v>0.11</v>
+        <v>0.108</v>
       </c>
       <c r="J156" s="2">
-        <v>0.06</v>
+        <v>5.9540000000000003E-2</v>
       </c>
       <c r="K156" s="2">
-        <v>4.3600000000000003</v>
+        <v>4.3620000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -5856,31 +5873,31 @@
         <v>48</v>
       </c>
       <c r="C157" s="2">
-        <v>0.21</v>
+        <v>0.90149999999999997</v>
       </c>
       <c r="D157" s="2">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="E157" s="2">
-        <v>4.07</v>
+        <v>3.3380000000000001</v>
       </c>
       <c r="F157" s="2">
         <v>2</v>
       </c>
       <c r="G157" s="2">
-        <v>3</v>
+        <v>0.2742</v>
       </c>
       <c r="H157" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.56579999999999997</v>
       </c>
       <c r="I157" s="2">
-        <v>0.15</v>
+        <v>0.14530000000000001</v>
       </c>
       <c r="J157" s="2">
-        <v>0.04</v>
+        <v>4.4089999999999997E-2</v>
       </c>
       <c r="K157" s="2">
-        <v>3.22</v>
+        <v>3.218</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -5891,31 +5908,31 @@
         <v>41</v>
       </c>
       <c r="C158" s="2">
-        <v>0.21</v>
+        <v>0.94120000000000004</v>
       </c>
       <c r="D158" s="2">
-        <v>0.76</v>
+        <v>7</v>
       </c>
       <c r="E158" s="2">
-        <v>3.79</v>
+        <v>3.472</v>
       </c>
       <c r="F158" s="2">
         <v>0</v>
       </c>
       <c r="G158" s="2">
-        <v>4</v>
+        <v>0.19289999999999999</v>
       </c>
       <c r="H158" s="2">
-        <v>0.4</v>
+        <v>0.40039999999999998</v>
       </c>
       <c r="I158" s="2">
-        <v>0.17</v>
+        <v>0.16880000000000001</v>
       </c>
       <c r="J158" s="2">
-        <v>0.03</v>
+        <v>2.717E-2</v>
       </c>
       <c r="K158" s="2">
-        <v>2.2400000000000002</v>
+        <v>2.2360000000000002</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -5926,31 +5943,31 @@
         <v>51</v>
       </c>
       <c r="C159" s="2">
-        <v>0.2</v>
+        <v>0.7702</v>
       </c>
       <c r="D159" s="2">
-        <v>0.97</v>
+        <v>7</v>
       </c>
       <c r="E159" s="2">
-        <v>3.9</v>
+        <v>3.4510000000000001</v>
       </c>
       <c r="F159" s="2">
         <v>2</v>
       </c>
       <c r="G159" s="2">
-        <v>5</v>
+        <v>0.1948</v>
       </c>
       <c r="H159" s="2">
-        <v>0.41</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="I159" s="2">
-        <v>0.2</v>
+        <v>0.20280000000000001</v>
       </c>
       <c r="J159" s="2">
-        <v>0.03</v>
+        <v>3.125E-2</v>
       </c>
       <c r="K159" s="2">
-        <v>3.87</v>
+        <v>3.8740000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -5961,31 +5978,31 @@
         <v>53</v>
       </c>
       <c r="C160" s="2">
-        <v>0.25</v>
+        <v>0.74350000000000005</v>
       </c>
       <c r="D160" s="2">
-        <v>0.96</v>
+        <v>7</v>
       </c>
       <c r="E160" s="2">
-        <v>4.0599999999999996</v>
+        <v>3.3069999999999999</v>
       </c>
       <c r="F160" s="2">
         <v>2</v>
       </c>
       <c r="G160" s="2">
-        <v>3</v>
+        <v>0.17380000000000001</v>
       </c>
       <c r="H160" s="2">
-        <v>0.47</v>
+        <v>0.46629999999999999</v>
       </c>
       <c r="I160" s="2">
-        <v>0.17</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="J160" s="2">
-        <v>0.01</v>
+        <v>7.6140000000000001E-3</v>
       </c>
       <c r="K160" s="2">
-        <v>2.86</v>
+        <v>2.8559999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -5996,31 +6013,31 @@
         <v>51</v>
       </c>
       <c r="C161" s="2">
-        <v>0.23</v>
+        <v>0.79169999999999996</v>
       </c>
       <c r="D161" s="2">
-        <v>0.84</v>
+        <v>5</v>
       </c>
       <c r="E161" s="2">
-        <v>4.41</v>
+        <v>3.37</v>
       </c>
       <c r="F161" s="2">
         <v>2</v>
       </c>
       <c r="G161" s="2">
-        <v>3</v>
+        <v>0.2203</v>
       </c>
       <c r="H161" s="2">
-        <v>0.45</v>
+        <v>0.4546</v>
       </c>
       <c r="I161" s="2">
-        <v>0.13</v>
+        <v>0.13089999999999999</v>
       </c>
       <c r="J161" s="2">
-        <v>0.03</v>
+        <v>2.512E-2</v>
       </c>
       <c r="K161" s="2">
-        <v>3.07</v>
+        <v>3.069</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -6031,31 +6048,31 @@
         <v>45</v>
       </c>
       <c r="C162" s="2">
-        <v>0.2</v>
+        <v>0.75480000000000003</v>
       </c>
       <c r="D162" s="2">
-        <v>0.95</v>
+        <v>7</v>
       </c>
       <c r="E162" s="2">
-        <v>4.25</v>
+        <v>3.3380000000000001</v>
       </c>
       <c r="F162" s="2">
         <v>3</v>
       </c>
       <c r="G162" s="2">
-        <v>5</v>
+        <v>0.1221</v>
       </c>
       <c r="H162" s="2">
-        <v>0.27</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="I162" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.14030000000000001</v>
       </c>
       <c r="J162" s="2">
-        <v>0.05</v>
+        <v>4.9110000000000001E-2</v>
       </c>
       <c r="K162" s="2">
-        <v>2.3199999999999998</v>
+        <v>2.3159999999999998</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -6066,31 +6083,31 @@
         <v>51</v>
       </c>
       <c r="C163" s="2">
-        <v>0.2</v>
+        <v>0.95450000000000002</v>
       </c>
       <c r="D163" s="2">
-        <v>0.94</v>
+        <v>5</v>
       </c>
       <c r="E163" s="2">
-        <v>4.3600000000000003</v>
+        <v>3.5369999999999999</v>
       </c>
       <c r="F163" s="2">
         <v>1</v>
       </c>
       <c r="G163" s="2">
-        <v>3</v>
+        <v>0.28820000000000001</v>
       </c>
       <c r="H163" s="2">
-        <v>0.53</v>
+        <v>0.53169999999999995</v>
       </c>
       <c r="I163" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="J163" s="2">
-        <v>0.03</v>
+        <v>2.6919999999999999E-2</v>
       </c>
       <c r="K163" s="2">
-        <v>3.76</v>
+        <v>3.7570000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -6101,31 +6118,31 @@
         <v>51</v>
       </c>
       <c r="C164" s="2">
-        <v>0.22</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="D164" s="2">
-        <v>0.69</v>
+        <v>7</v>
       </c>
       <c r="E164" s="2">
-        <v>3.3</v>
+        <v>3.2959999999999998</v>
       </c>
       <c r="F164" s="2">
         <v>0</v>
       </c>
       <c r="G164" s="2">
-        <v>2</v>
+        <v>0.2311</v>
       </c>
       <c r="H164" s="2">
-        <v>0.32</v>
+        <v>0.31690000000000002</v>
       </c>
       <c r="I164" s="2">
-        <v>0.13</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="J164" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4069999999999997E-2</v>
       </c>
       <c r="K164" s="2">
-        <v>3.3</v>
+        <v>3.3010000000000002</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -6136,31 +6153,31 @@
         <v>50</v>
       </c>
       <c r="C165" s="2">
-        <v>0.17</v>
+        <v>0.87250000000000005</v>
       </c>
       <c r="D165" s="2">
-        <v>0.84</v>
+        <v>5</v>
       </c>
       <c r="E165" s="2">
-        <v>4.0599999999999996</v>
+        <v>3.5550000000000002</v>
       </c>
       <c r="F165" s="2">
         <v>2</v>
       </c>
       <c r="G165" s="2">
-        <v>3</v>
+        <v>0.24</v>
       </c>
       <c r="H165" s="2">
-        <v>0.51</v>
+        <v>0.50970000000000004</v>
       </c>
       <c r="I165" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="J165" s="2">
-        <v>0.06</v>
+        <v>5.8479999999999997E-2</v>
       </c>
       <c r="K165" s="2">
-        <v>3.6</v>
+        <v>3.5979999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -6171,31 +6188,31 @@
         <v>51</v>
       </c>
       <c r="C166" s="2">
-        <v>0.22</v>
+        <v>0.76580000000000004</v>
       </c>
       <c r="D166" s="2">
-        <v>0.95</v>
+        <v>7</v>
       </c>
       <c r="E166" s="2">
-        <v>2.39</v>
+        <v>3.32</v>
       </c>
       <c r="F166" s="2">
         <v>2</v>
       </c>
       <c r="G166" s="2">
-        <v>4</v>
+        <v>0.1817</v>
       </c>
       <c r="H166" s="2">
-        <v>0.45</v>
+        <v>0.44829999999999998</v>
       </c>
       <c r="I166" s="2">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="J166" s="2">
-        <v>0.03</v>
+        <v>3.1419999999999997E-2</v>
       </c>
       <c r="K166" s="2">
-        <v>3.64</v>
+        <v>3.6440000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -6206,28 +6223,28 @@
         <v>50</v>
       </c>
       <c r="C167" s="2">
-        <v>0.19</v>
+        <v>0.90559999999999996</v>
       </c>
       <c r="D167" s="2">
-        <v>0.98</v>
+        <v>5</v>
       </c>
       <c r="E167" s="2">
-        <v>2.09</v>
+        <v>3.4889999999999999</v>
       </c>
       <c r="F167" s="2">
         <v>2</v>
       </c>
       <c r="G167" s="2">
-        <v>3</v>
+        <v>0.23230000000000001</v>
       </c>
       <c r="H167" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.55079999999999996</v>
       </c>
       <c r="I167" s="2">
-        <v>0.19</v>
+        <v>0.18920000000000001</v>
       </c>
       <c r="J167" s="2">
-        <v>0.03</v>
+        <v>3.1480000000000001E-2</v>
       </c>
       <c r="K167" s="2">
         <v>2.92</v>
@@ -6241,31 +6258,31 @@
         <v>53</v>
       </c>
       <c r="C168" s="2">
-        <v>0.17</v>
+        <v>0.95889999999999997</v>
       </c>
       <c r="D168" s="2">
-        <v>0.98</v>
+        <v>2</v>
       </c>
       <c r="E168" s="2">
-        <v>3.97</v>
+        <v>3.367</v>
       </c>
       <c r="F168" s="2">
         <v>2</v>
       </c>
       <c r="G168" s="2">
-        <v>3</v>
+        <v>0.245</v>
       </c>
       <c r="H168" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.56810000000000005</v>
       </c>
       <c r="I168" s="2">
-        <v>0.21</v>
+        <v>0.2069</v>
       </c>
       <c r="J168" s="2">
-        <v>0.09</v>
+        <v>8.6099999999999996E-2</v>
       </c>
       <c r="K168" s="2">
-        <v>2.41</v>
+        <v>2.4089999999999998</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
@@ -6276,31 +6293,31 @@
         <v>52</v>
       </c>
       <c r="C169" s="2">
-        <v>0.15</v>
+        <v>0.96819999999999995</v>
       </c>
       <c r="D169" s="2">
-        <v>0.97</v>
+        <v>2</v>
       </c>
       <c r="E169" s="2">
-        <v>2.67</v>
+        <v>3.4820000000000002</v>
       </c>
       <c r="F169" s="2">
         <v>1</v>
       </c>
       <c r="G169" s="2">
-        <v>3</v>
+        <v>0.30120000000000002</v>
       </c>
       <c r="H169" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.57410000000000005</v>
       </c>
       <c r="I169" s="2">
-        <v>0.22</v>
+        <v>0.2228</v>
       </c>
       <c r="J169" s="2">
-        <v>0.05</v>
+        <v>5.3990000000000003E-2</v>
       </c>
       <c r="K169" s="2">
-        <v>4.3</v>
+        <v>4.3040000000000003</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
@@ -6311,31 +6328,31 @@
         <v>53</v>
       </c>
       <c r="C170" s="2">
-        <v>0.18</v>
+        <v>0.96489999999999998</v>
       </c>
       <c r="D170" s="2">
-        <v>0.83</v>
+        <v>7</v>
       </c>
       <c r="E170" s="2">
-        <v>3.78</v>
+        <v>3.3</v>
       </c>
       <c r="F170" s="2">
         <v>0</v>
       </c>
       <c r="G170" s="2">
-        <v>3</v>
+        <v>0.2361</v>
       </c>
       <c r="H170" s="2">
-        <v>0.4</v>
+        <v>0.40139999999999998</v>
       </c>
       <c r="I170" s="2">
-        <v>0.22</v>
+        <v>0.21590000000000001</v>
       </c>
       <c r="J170" s="2">
-        <v>0.05</v>
+        <v>5.2720000000000003E-2</v>
       </c>
       <c r="K170" s="2">
-        <v>3.98</v>
+        <v>3.9769999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -6346,31 +6363,31 @@
         <v>58</v>
       </c>
       <c r="C171" s="2">
-        <v>0.17</v>
+        <v>0.90269999999999995</v>
       </c>
       <c r="D171" s="2">
-        <v>0.91</v>
+        <v>7</v>
       </c>
       <c r="E171" s="2">
-        <v>4.1900000000000004</v>
+        <v>3.4180000000000001</v>
       </c>
       <c r="F171" s="2">
         <v>2</v>
       </c>
       <c r="G171" s="2">
-        <v>3</v>
+        <v>0.22789999999999999</v>
       </c>
       <c r="H171" s="2">
-        <v>0.48</v>
+        <v>0.47870000000000001</v>
       </c>
       <c r="I171" s="2">
-        <v>0.24</v>
+        <v>0.2407</v>
       </c>
       <c r="J171" s="2">
-        <v>0.02</v>
+        <v>2.3429999999999999E-2</v>
       </c>
       <c r="K171" s="2">
-        <v>3.4</v>
+        <v>3.3959999999999999</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -6381,28 +6398,28 @@
         <v>55</v>
       </c>
       <c r="C172" s="2">
-        <v>0.19</v>
+        <v>0.86629999999999996</v>
       </c>
       <c r="D172" s="2">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="E172" s="2">
-        <v>4.37</v>
+        <v>3.4590000000000001</v>
       </c>
       <c r="F172" s="2">
         <v>2</v>
       </c>
       <c r="G172" s="2">
-        <v>4</v>
+        <v>0.18279999999999999</v>
       </c>
       <c r="H172" s="2">
-        <v>0.49</v>
+        <v>0.49259999999999998</v>
       </c>
       <c r="I172" s="2">
-        <v>0.18</v>
+        <v>0.18149999999999999</v>
       </c>
       <c r="J172" s="2">
-        <v>0.03</v>
+        <v>3.3660000000000002E-2</v>
       </c>
       <c r="K172" s="2">
         <v>3.59</v>
@@ -6416,31 +6433,31 @@
         <v>51</v>
       </c>
       <c r="C173" s="2">
-        <v>0.17</v>
+        <v>0.94889999999999997</v>
       </c>
       <c r="D173" s="2">
-        <v>0.83</v>
+        <v>7</v>
       </c>
       <c r="E173" s="2">
-        <v>4.05</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="F173" s="2">
         <v>0</v>
       </c>
       <c r="G173" s="2">
-        <v>4</v>
+        <v>0.217</v>
       </c>
       <c r="H173" s="2">
-        <v>0.39</v>
+        <v>0.38940000000000002</v>
       </c>
       <c r="I173" s="2">
-        <v>0.23</v>
+        <v>0.2253</v>
       </c>
       <c r="J173" s="2">
-        <v>0.05</v>
+        <v>5.0860000000000002E-2</v>
       </c>
       <c r="K173" s="2">
-        <v>8.7100000000000009</v>
+        <v>8.7119999999999997</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -6451,31 +6468,31 @@
         <v>55</v>
       </c>
       <c r="C174" s="2">
-        <v>0.17</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D174" s="2">
-        <v>0.89</v>
+        <v>7</v>
       </c>
       <c r="E174" s="2">
-        <v>3.39</v>
+        <v>3.5470000000000002</v>
       </c>
       <c r="F174" s="2">
         <v>0</v>
       </c>
       <c r="G174" s="2">
-        <v>4</v>
+        <v>0.21229999999999999</v>
       </c>
       <c r="H174" s="2">
         <v>0.43</v>
       </c>
       <c r="I174" s="2">
-        <v>0.24</v>
+        <v>0.2422</v>
       </c>
       <c r="J174" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>7.3880000000000001E-2</v>
       </c>
       <c r="K174" s="2">
-        <v>2.73</v>
+        <v>2.7250000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -6486,31 +6503,31 @@
         <v>53</v>
       </c>
       <c r="C175" s="2">
-        <v>0.19</v>
+        <v>0.95089999999999997</v>
       </c>
       <c r="D175" s="2">
-        <v>0.64</v>
+        <v>5</v>
       </c>
       <c r="E175" s="2">
-        <v>4.2</v>
+        <v>3.4550000000000001</v>
       </c>
       <c r="F175" s="2">
         <v>0</v>
       </c>
       <c r="G175" s="2">
-        <v>4</v>
+        <v>0.23780000000000001</v>
       </c>
       <c r="H175" s="2">
-        <v>0.39</v>
+        <v>0.39219999999999999</v>
       </c>
       <c r="I175" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.2913</v>
       </c>
       <c r="J175" s="2">
-        <v>0.05</v>
+        <v>5.2330000000000002E-2</v>
       </c>
       <c r="K175" s="2">
-        <v>3.44</v>
+        <v>3.4430000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -6521,31 +6538,31 @@
         <v>55</v>
       </c>
       <c r="C176" s="2">
-        <v>0.23</v>
+        <v>0.57530000000000003</v>
       </c>
       <c r="D176" s="2">
-        <v>0.75</v>
+        <v>7</v>
       </c>
       <c r="E176" s="2">
-        <v>3.57</v>
+        <v>3.3239999999999998</v>
       </c>
       <c r="F176" s="2">
         <v>0</v>
       </c>
       <c r="G176" s="2">
-        <v>4</v>
+        <v>0.21390000000000001</v>
       </c>
       <c r="H176" s="2">
-        <v>0.34</v>
+        <v>0.34489999999999998</v>
       </c>
       <c r="I176" s="2">
-        <v>0.22</v>
+        <v>0.21759999999999999</v>
       </c>
       <c r="J176" s="2">
-        <v>0.11</v>
+        <v>0.1148</v>
       </c>
       <c r="K176" s="2">
-        <v>2.38</v>
+        <v>2.3839999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -6556,31 +6573,31 @@
         <v>53</v>
       </c>
       <c r="C177" s="2">
-        <v>0.19</v>
+        <v>0.84430000000000005</v>
       </c>
       <c r="D177" s="2">
-        <v>0.97</v>
+        <v>7</v>
       </c>
       <c r="E177" s="2">
-        <v>3.4</v>
+        <v>3.4609999999999999</v>
       </c>
       <c r="F177" s="2">
         <v>0</v>
       </c>
       <c r="G177" s="2">
-        <v>3</v>
+        <v>0.18559999999999999</v>
       </c>
       <c r="H177" s="2">
-        <v>0.36</v>
+        <v>0.36320000000000002</v>
       </c>
       <c r="I177" s="2">
-        <v>0.19</v>
+        <v>0.19289999999999999</v>
       </c>
       <c r="J177" s="2">
-        <v>0.04</v>
+        <v>4.3389999999999998E-2</v>
       </c>
       <c r="K177" s="2">
-        <v>3.92</v>
+        <v>3.9169999999999998</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -6591,31 +6608,31 @@
         <v>57</v>
       </c>
       <c r="C178" s="2">
-        <v>0.17</v>
+        <v>0.8609</v>
       </c>
       <c r="D178" s="2">
-        <v>0.95</v>
+        <v>7</v>
       </c>
       <c r="E178" s="2">
-        <v>2.77</v>
+        <v>3.3330000000000002</v>
       </c>
       <c r="F178" s="2">
         <v>2</v>
       </c>
       <c r="G178" s="2">
-        <v>5</v>
+        <v>0.17249999999999999</v>
       </c>
       <c r="H178" s="2">
-        <v>0.39</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="I178" s="2">
-        <v>0.18</v>
+        <v>0.1777</v>
       </c>
       <c r="J178" s="2">
-        <v>0.04</v>
+        <v>4.1889999999999997E-2</v>
       </c>
       <c r="K178" s="2">
-        <v>2.77</v>
+        <v>2.7650000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -6626,31 +6643,31 @@
         <v>57</v>
       </c>
       <c r="C179" s="2">
-        <v>0.17</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="D179" s="2">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="E179" s="2">
-        <v>2.63</v>
+        <v>3.56</v>
       </c>
       <c r="F179" s="2">
         <v>0</v>
       </c>
       <c r="G179" s="2">
-        <v>4</v>
+        <v>0.22470000000000001</v>
       </c>
       <c r="H179" s="2">
-        <v>0.41</v>
+        <v>0.41060000000000002</v>
       </c>
       <c r="I179" s="2">
-        <v>0.22</v>
+        <v>0.21859999999999999</v>
       </c>
       <c r="J179" s="2">
-        <v>0.05</v>
+        <v>5.4539999999999998E-2</v>
       </c>
       <c r="K179" s="2">
-        <v>3.96</v>
+        <v>3.956</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -6661,31 +6678,31 @@
         <v>56</v>
       </c>
       <c r="C180" s="2">
-        <v>0.17</v>
+        <v>0.88639999999999997</v>
       </c>
       <c r="D180" s="2">
-        <v>0.91</v>
+        <v>5</v>
       </c>
       <c r="E180" s="2">
-        <v>2.65</v>
+        <v>3.2810000000000001</v>
       </c>
       <c r="F180" s="2">
         <v>2</v>
       </c>
       <c r="G180" s="2">
-        <v>4</v>
+        <v>0.21909999999999999</v>
       </c>
       <c r="H180" s="2">
-        <v>0.5</v>
+        <v>0.49909999999999999</v>
       </c>
       <c r="I180" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.28649999999999998</v>
       </c>
       <c r="J180" s="2">
-        <v>0.03</v>
+        <v>2.954E-2</v>
       </c>
       <c r="K180" s="2">
-        <v>3.24</v>
+        <v>3.2429999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -6696,31 +6713,31 @@
         <v>51</v>
       </c>
       <c r="C181" s="2">
-        <v>0.17</v>
+        <v>0.96479999999999999</v>
       </c>
       <c r="D181" s="2">
-        <v>0.95</v>
+        <v>5</v>
       </c>
       <c r="E181" s="2">
-        <v>4.2</v>
+        <v>3.4340000000000002</v>
       </c>
       <c r="F181" s="2">
         <v>2</v>
       </c>
       <c r="G181" s="2">
-        <v>4</v>
+        <v>0.25740000000000002</v>
       </c>
       <c r="H181" s="2">
-        <v>0.54</v>
+        <v>0.53559999999999997</v>
       </c>
       <c r="I181" s="2">
-        <v>0.26</v>
+        <v>0.25690000000000002</v>
       </c>
       <c r="J181" s="2">
-        <v>0.05</v>
+        <v>4.8860000000000001E-2</v>
       </c>
       <c r="K181" s="2">
-        <v>2.83</v>
+        <v>2.8330000000000002</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -6731,31 +6748,31 @@
         <v>57</v>
       </c>
       <c r="C182" s="2">
-        <v>0.19</v>
+        <v>0.85219999999999996</v>
       </c>
       <c r="D182" s="2">
-        <v>0.78</v>
+        <v>7</v>
       </c>
       <c r="E182" s="2">
-        <v>3.16</v>
+        <v>3.53</v>
       </c>
       <c r="F182" s="2">
         <v>1</v>
       </c>
       <c r="G182" s="2">
-        <v>5</v>
+        <v>0.21079999999999999</v>
       </c>
       <c r="H182" s="2">
-        <v>0.39</v>
+        <v>0.38719999999999999</v>
       </c>
       <c r="I182" s="2">
-        <v>0.2</v>
+        <v>0.20119999999999999</v>
       </c>
       <c r="J182" s="2">
-        <v>0.02</v>
+        <v>1.8280000000000001E-2</v>
       </c>
       <c r="K182" s="2">
-        <v>1.6</v>
+        <v>1.597</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -6766,28 +6783,28 @@
         <v>51</v>
       </c>
       <c r="C183" s="2">
-        <v>0.16</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="D183" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E183" s="2">
-        <v>3.94</v>
+        <v>3.49</v>
       </c>
       <c r="F183" s="2">
         <v>1</v>
       </c>
       <c r="G183" s="2">
-        <v>3</v>
+        <v>0.16189999999999999</v>
       </c>
       <c r="H183" s="2">
-        <v>0.31</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="I183" s="2">
-        <v>0.23</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="J183" s="2">
-        <v>0.09</v>
+        <v>9.1910000000000006E-2</v>
       </c>
       <c r="K183" s="2">
         <v>2.5499999999999998</v>
@@ -6801,31 +6818,31 @@
         <v>56</v>
       </c>
       <c r="C184" s="2">
-        <v>0.21</v>
+        <v>0.76190000000000002</v>
       </c>
       <c r="D184" s="2">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="E184" s="2">
-        <v>4.21</v>
+        <v>3.4009999999999998</v>
       </c>
       <c r="F184" s="2">
         <v>2</v>
       </c>
       <c r="G184" s="2">
-        <v>4</v>
+        <v>0.15809999999999999</v>
       </c>
       <c r="H184" s="2">
-        <v>0.33</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I184" s="2">
-        <v>0.18</v>
+        <v>0.18459999999999999</v>
       </c>
       <c r="J184" s="2">
-        <v>0.03</v>
+        <v>2.767E-2</v>
       </c>
       <c r="K184" s="2">
-        <v>2.35</v>
+        <v>2.3490000000000002</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -6836,31 +6853,31 @@
         <v>51</v>
       </c>
       <c r="C185" s="2">
-        <v>0.16</v>
+        <v>0.8649</v>
       </c>
       <c r="D185" s="2">
-        <v>0.91</v>
+        <v>8</v>
       </c>
       <c r="E185" s="2">
-        <v>4.18</v>
+        <v>3.4590000000000001</v>
       </c>
       <c r="F185" s="2">
         <v>2</v>
       </c>
       <c r="G185" s="2">
-        <v>4</v>
+        <v>0.18909999999999999</v>
       </c>
       <c r="H185" s="2">
-        <v>0.41</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="I185" s="2">
-        <v>0.23</v>
+        <v>0.2283</v>
       </c>
       <c r="J185" s="2">
-        <v>0.05</v>
+        <v>5.1700000000000003E-2</v>
       </c>
       <c r="K185" s="2">
-        <v>1.73</v>
+        <v>1.7270000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -6871,31 +6888,31 @@
         <v>58</v>
       </c>
       <c r="C186" s="2">
-        <v>0.17</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="D186" s="2">
-        <v>0.72</v>
+        <v>2</v>
       </c>
       <c r="E186" s="2">
-        <v>3</v>
+        <v>3.5960000000000001</v>
       </c>
       <c r="F186" s="2">
         <v>2</v>
       </c>
       <c r="G186" s="2">
-        <v>3</v>
+        <v>0.15620000000000001</v>
       </c>
       <c r="H186" s="2">
-        <v>0.35</v>
+        <v>0.35349999999999998</v>
       </c>
       <c r="I186" s="2">
-        <v>0.15</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="J186" s="2">
-        <v>0.02</v>
+        <v>2.2589999999999999E-2</v>
       </c>
       <c r="K186" s="2">
-        <v>3.14</v>
+        <v>3.1429999999999998</v>
       </c>
     </row>
   </sheetData>
